--- a/Pytest/1111.xlsx
+++ b/Pytest/1111.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pythonprojects\untitled\Pytest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pythonprojects\untitled\Pytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D605B92-280D-4894-8BD3-A586193D843A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB3B779-D213-44BA-B8A2-154A05F722AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23550" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,8 +64,8 @@
   <si>
     <t>{
             "channelCustId": "1",
-            "name":"",
-            "insuranceNo": “1”,
+            "name": "",
+            "insuranceNo": "",
             "idNo": "1",
             "idAddress": "上海市浦东新区龙阳路幸福村520号",
             "phone": "1",
@@ -412,13 +412,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.84375" customWidth="1"/>
+    <col min="1" max="1" width="18.86328125" customWidth="1"/>
     <col min="2" max="2" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="238.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="238.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -434,7 +434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="214.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="214.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -442,181 +442,182 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:2" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="17" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="18" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="21" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="22" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="23" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="24" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="25" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" s="1" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>